--- a/Excel文件/xiakeqian/道具表.xlsx
+++ b/Excel文件/xiakeqian/道具表.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\xiakeqian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B5001-8FFC-4B6C-BE67-32E046FE7E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5141C-237C-49DD-89D5-2C1FDC93494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AF$270</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="844">
   <si>
     <t>#物品编号</t>
   </si>
@@ -342,45 +345,30 @@
     <t>i00087</t>
   </si>
   <si>
-    <t>提高内力最大值一百五</t>
-  </si>
-  <si>
     <t>怪鲶鱼</t>
   </si>
   <si>
     <t>i00072</t>
   </si>
   <si>
-    <t>提高气血最大值四百</t>
-  </si>
-  <si>
     <t>十全大补丹</t>
   </si>
   <si>
     <t>i00308</t>
   </si>
   <si>
-    <t>提高气血最大值一百五，内力最大值一百五</t>
-  </si>
-  <si>
     <t>千年人参</t>
   </si>
   <si>
     <t>i00734</t>
   </si>
   <si>
-    <t>提高气血最大值一百、内力最大值三百</t>
-  </si>
-  <si>
     <t>神鱼</t>
   </si>
   <si>
     <t>i00070</t>
   </si>
   <si>
-    <t>提高气血最大值两百，内力最大值两百</t>
-  </si>
-  <si>
     <t>草鱼</t>
   </si>
   <si>
@@ -654,9 +642,6 @@
     <t>i00423</t>
   </si>
   <si>
-    <t>用最肥嫩上等的放山鸡，搭配桂圆、红枣等佐料炖煮的鸡汤。馥郁浓厚，味甘性温，具有补中益气的效果。&lt;br&gt;食用效果：提高内力最大值30</t>
-  </si>
-  <si>
     <t>回锅肉</t>
   </si>
   <si>
@@ -2542,6 +2527,45 @@
   </si>
   <si>
     <t>可用来捕获敌军，使敌人加入我方；目标气血一半以下，才有机会成功。</t>
+  </si>
+  <si>
+    <t>提高内力最大值75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高气血最大值200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高气血最大值75，内力最大值75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高气血最大值50百、内力最大值150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高气血最大值100，内力最大值100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用最肥嫩上等的放山鸡，搭配桂圆、红枣等佐料炖煮的鸡汤。馥郁浓厚，味甘性温，具有补中益气的效果。&lt;br&gt;食用效果：提高内力最大值15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳倒乱刃</t>
+  </si>
+  <si>
+    <t>i00642</t>
+  </si>
+  <si>
+    <t>相传为绝情谷主的独门武器，阴阳相辅，倒乱乾坤，端的是天下奇兵。</t>
+  </si>
+  <si>
+    <t>(1,21,55)*(1,22,55)*(1,13,70)</t>
+  </si>
+  <si>
+    <t>荆棘专属武器</t>
   </si>
 </sst>
 </file>
@@ -2873,13 +2897,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF270"/>
+  <dimension ref="A1:AF271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A271" sqref="A271:AF271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3100,7 +3129,8 @@
         <v>200</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <f>G3*0.4</f>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3198,7 +3228,8 @@
         <v>600</v>
       </c>
       <c r="H4">
-        <v>300</v>
+        <f t="shared" ref="H4:H67" si="0">G4*0.4</f>
+        <v>240</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3296,7 +3327,8 @@
         <v>1000</v>
       </c>
       <c r="H5">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -3394,7 +3426,8 @@
         <v>3500</v>
       </c>
       <c r="H6">
-        <v>1750</v>
+        <f t="shared" si="0"/>
+        <v>1400</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -3492,7 +3525,8 @@
         <v>5000</v>
       </c>
       <c r="H7">
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -3590,7 +3624,8 @@
         <v>1000</v>
       </c>
       <c r="H8">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -3688,7 +3723,8 @@
         <v>1500</v>
       </c>
       <c r="H9">
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -3786,7 +3822,8 @@
         <v>2000</v>
       </c>
       <c r="H10">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -3884,7 +3921,8 @@
         <v>3000</v>
       </c>
       <c r="H11">
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -3982,7 +4020,8 @@
         <v>4000</v>
       </c>
       <c r="H12">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -4080,7 +4119,8 @@
         <v>2500</v>
       </c>
       <c r="H13">
-        <v>1250</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -4178,7 +4218,8 @@
         <v>6000</v>
       </c>
       <c r="H14">
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>2400</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -4276,7 +4317,8 @@
         <v>2500</v>
       </c>
       <c r="H15">
-        <v>1250</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -4374,7 +4416,8 @@
         <v>4500</v>
       </c>
       <c r="H16">
-        <v>2250</v>
+        <f t="shared" si="0"/>
+        <v>1800</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -4472,7 +4515,8 @@
         <v>2000</v>
       </c>
       <c r="H17">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -4570,7 +4614,8 @@
         <v>3000</v>
       </c>
       <c r="H18">
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -4668,7 +4713,8 @@
         <v>5000</v>
       </c>
       <c r="H19">
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -4760,13 +4806,14 @@
         <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>833</v>
       </c>
       <c r="G20">
         <v>2000</v>
       </c>
       <c r="H20">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -4790,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="P20">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4846,7 +4893,7 @@
         <v>140101</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4855,16 +4902,17 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>834</v>
       </c>
       <c r="G21">
         <v>500</v>
       </c>
       <c r="H21">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -4888,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4944,7 +4992,7 @@
         <v>140102</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -4953,16 +5001,17 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>835</v>
       </c>
       <c r="G22">
         <v>6000</v>
       </c>
       <c r="H22">
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>2400</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -4986,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -4998,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="T22">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -5042,7 +5091,7 @@
         <v>140103</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -5051,16 +5100,17 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>836</v>
       </c>
       <c r="G23">
         <v>10000</v>
       </c>
       <c r="H23">
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -5084,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="P23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -5096,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="T23">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -5140,7 +5190,7 @@
         <v>140104</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -5149,16 +5199,17 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>837</v>
       </c>
       <c r="G24">
         <v>500</v>
       </c>
       <c r="H24">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -5182,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -5194,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="T24">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -5238,7 +5289,7 @@
         <v>140105</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -5247,16 +5298,17 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G25">
         <v>200</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -5280,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5336,7 +5388,7 @@
         <v>140106</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -5345,16 +5397,17 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G26">
         <v>350</v>
       </c>
       <c r="H26">
-        <v>175</v>
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -5378,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -5434,7 +5487,7 @@
         <v>140107</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -5443,16 +5496,17 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G27">
         <v>800</v>
       </c>
       <c r="H27">
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -5476,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -5488,7 +5542,7 @@
         <v>3</v>
       </c>
       <c r="T27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -5532,7 +5586,7 @@
         <v>140108</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -5541,16 +5595,17 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G28">
         <v>5000</v>
       </c>
       <c r="H28">
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -5574,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -5586,7 +5641,7 @@
         <v>3</v>
       </c>
       <c r="T28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -5630,7 +5685,7 @@
         <v>140109</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -5639,16 +5694,17 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G29">
         <v>10000</v>
       </c>
       <c r="H29">
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -5672,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -5684,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="T29">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -5728,7 +5784,7 @@
         <v>140110</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -5737,16 +5793,17 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G30">
         <v>1000</v>
       </c>
       <c r="H30">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -5770,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -5826,7 +5883,7 @@
         <v>140111</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -5835,16 +5892,17 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G31">
         <v>10000</v>
       </c>
       <c r="H31">
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -5868,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -5924,7 +5982,7 @@
         <v>140112</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5933,16 +5991,17 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G32">
         <v>2000</v>
       </c>
       <c r="H32">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -5966,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -6022,7 +6081,7 @@
         <v>140113</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -6031,16 +6090,17 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G33">
         <v>2000</v>
       </c>
       <c r="H33">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -6064,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -6120,7 +6180,7 @@
         <v>140114</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -6129,16 +6189,17 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G34">
         <v>2000</v>
       </c>
       <c r="H34">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -6162,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -6218,7 +6279,7 @@
         <v>140115</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6227,16 +6288,17 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G35">
         <v>4000</v>
       </c>
       <c r="H35">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -6260,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -6316,7 +6378,7 @@
         <v>140116</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -6325,16 +6387,17 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G36">
         <v>4000</v>
       </c>
       <c r="H36">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -6358,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -6414,7 +6477,7 @@
         <v>140117</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -6423,16 +6486,17 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G37">
         <v>2000</v>
       </c>
       <c r="H37">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -6456,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -6512,7 +6576,7 @@
         <v>140118</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -6521,16 +6585,17 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G38">
         <v>4000</v>
       </c>
       <c r="H38">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -6554,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -6610,7 +6675,7 @@
         <v>140200</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -6619,16 +6684,17 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G39">
         <v>500</v>
       </c>
       <c r="H39">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -6708,7 +6774,7 @@
         <v>140201</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -6717,16 +6783,17 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G40">
         <v>500</v>
       </c>
       <c r="H40">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -6806,7 +6873,7 @@
         <v>140202</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -6815,16 +6882,17 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G41">
         <v>500</v>
       </c>
       <c r="H41">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -6904,7 +6972,7 @@
         <v>140203</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -6913,16 +6981,17 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G42">
         <v>500</v>
       </c>
       <c r="H42">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -7002,7 +7071,7 @@
         <v>140204</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -7011,16 +7080,17 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G43">
         <v>500</v>
       </c>
       <c r="H43">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -7100,7 +7170,7 @@
         <v>140205</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -7109,16 +7179,17 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G44">
         <v>500</v>
       </c>
       <c r="H44">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -7198,7 +7269,7 @@
         <v>140206</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -7207,16 +7278,17 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G45">
         <v>500</v>
       </c>
       <c r="H45">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -7296,7 +7368,7 @@
         <v>140207</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -7305,16 +7377,17 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G46">
         <v>500</v>
       </c>
       <c r="H46">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -7394,7 +7467,7 @@
         <v>140208</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -7403,16 +7476,17 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G47">
         <v>500</v>
       </c>
       <c r="H47">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -7492,7 +7566,7 @@
         <v>140209</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -7501,16 +7575,17 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F48" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G48">
         <v>500</v>
       </c>
       <c r="H48">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -7590,7 +7665,7 @@
         <v>140210</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -7599,16 +7674,17 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F49" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G49">
         <v>500</v>
       </c>
       <c r="H49">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -7632,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="P49">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -7688,7 +7764,7 @@
         <v>140211</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -7697,16 +7773,17 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G50">
         <v>100</v>
       </c>
       <c r="H50">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -7786,7 +7863,7 @@
         <v>140212</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -7795,16 +7872,17 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F51" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
       <c r="H51">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -7884,7 +7962,7 @@
         <v>140213</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -7893,16 +7971,17 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G52">
         <v>100</v>
       </c>
       <c r="H52">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -7982,7 +8061,7 @@
         <v>140214</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -7991,16 +8070,17 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G53">
         <v>500</v>
       </c>
       <c r="H53">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -8080,7 +8160,7 @@
         <v>140215</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -8089,16 +8169,17 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F54" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G54">
         <v>500</v>
       </c>
       <c r="H54">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -8178,7 +8259,7 @@
         <v>140216</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -8187,16 +8268,17 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F55" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G55">
         <v>500</v>
       </c>
       <c r="H55">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -8276,7 +8358,7 @@
         <v>140217</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -8285,16 +8367,17 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F56" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G56">
         <v>500</v>
       </c>
       <c r="H56">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -8374,7 +8457,7 @@
         <v>140218</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -8383,16 +8466,17 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F57" t="s">
-        <v>209</v>
+        <v>838</v>
       </c>
       <c r="G57">
         <v>500</v>
       </c>
       <c r="H57">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -8416,7 +8500,7 @@
         <v>3</v>
       </c>
       <c r="P57">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -8472,7 +8556,7 @@
         <v>140219</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -8481,16 +8565,17 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G58">
         <v>500</v>
       </c>
       <c r="H58">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -8570,7 +8655,7 @@
         <v>140220</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -8579,40 +8664,41 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G59">
         <v>10</v>
       </c>
       <c r="H59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
         <v>5</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>10</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -8624,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="T59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -8668,7 +8754,7 @@
         <v>140221</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -8677,16 +8763,17 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G60">
         <v>100</v>
       </c>
       <c r="H60">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -8766,7 +8853,7 @@
         <v>140222</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -8775,16 +8862,17 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G61">
         <v>600</v>
       </c>
       <c r="H61">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -8864,7 +8952,7 @@
         <v>140223</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -8873,16 +8961,17 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F62" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G62">
         <v>600</v>
       </c>
       <c r="H62">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -8962,7 +9051,7 @@
         <v>140224</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -8971,16 +9060,17 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G63">
         <v>600</v>
       </c>
       <c r="H63">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -9060,7 +9150,7 @@
         <v>140225</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -9069,16 +9159,17 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F64" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G64">
         <v>600</v>
       </c>
       <c r="H64">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -9158,7 +9249,7 @@
         <v>140226</v>
       </c>
       <c r="B65" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -9167,16 +9258,17 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F65" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G65">
         <v>600</v>
       </c>
       <c r="H65">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -9256,7 +9348,7 @@
         <v>140227</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -9265,16 +9357,17 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F66" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G66">
         <v>600</v>
       </c>
       <c r="H66">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -9354,7 +9447,7 @@
         <v>140228</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -9363,16 +9456,17 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G67">
         <v>600</v>
       </c>
       <c r="H67">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -9452,7 +9546,7 @@
         <v>140229</v>
       </c>
       <c r="B68" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -9461,16 +9555,17 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F68" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G68">
         <v>600</v>
       </c>
       <c r="H68">
-        <v>300</v>
+        <f t="shared" ref="H68:H131" si="1">G68*0.4</f>
+        <v>240</v>
       </c>
       <c r="I68">
         <v>2</v>
@@ -9550,7 +9645,7 @@
         <v>140230</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -9559,16 +9654,17 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F69" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G69">
         <v>300</v>
       </c>
       <c r="H69">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -9592,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="P69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -9648,7 +9744,7 @@
         <v>140231</v>
       </c>
       <c r="B70" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -9657,16 +9753,17 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F70" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G70">
         <v>300</v>
       </c>
       <c r="H70">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -9690,7 +9787,7 @@
         <v>3</v>
       </c>
       <c r="P70">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -9746,7 +9843,7 @@
         <v>140232</v>
       </c>
       <c r="B71" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -9755,16 +9852,17 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F71" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -9844,7 +9942,7 @@
         <v>140233</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -9853,16 +9951,17 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F72" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G72">
         <v>2000</v>
       </c>
       <c r="H72">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -9886,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="P72">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -9898,7 +9997,7 @@
         <v>3</v>
       </c>
       <c r="T72">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -9942,7 +10041,7 @@
         <v>140234</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -9951,16 +10050,17 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F73" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G73">
         <v>2000</v>
       </c>
       <c r="H73">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -9984,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="P73">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -9996,7 +10096,7 @@
         <v>3</v>
       </c>
       <c r="T73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -10040,7 +10140,7 @@
         <v>140235</v>
       </c>
       <c r="B74" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -10049,16 +10149,17 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F74" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G74">
         <v>2000</v>
       </c>
       <c r="H74">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -10082,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="P74">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -10094,7 +10195,7 @@
         <v>3</v>
       </c>
       <c r="T74">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -10138,7 +10239,7 @@
         <v>140236</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -10150,13 +10251,14 @@
         <v>104</v>
       </c>
       <c r="F75" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G75">
         <v>600</v>
       </c>
       <c r="H75">
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -10180,7 +10282,7 @@
         <v>1</v>
       </c>
       <c r="P75">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -10192,7 +10294,7 @@
         <v>3</v>
       </c>
       <c r="T75">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -10236,7 +10338,7 @@
         <v>140300</v>
       </c>
       <c r="B76" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -10245,16 +10347,17 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F76" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G76">
         <v>300</v>
       </c>
       <c r="H76">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -10334,7 +10437,7 @@
         <v>140301</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -10343,16 +10446,17 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F77" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G77">
         <v>1200</v>
       </c>
       <c r="H77">
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>480</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -10432,7 +10536,7 @@
         <v>140302</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -10441,16 +10545,17 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F78" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G78">
         <v>2000</v>
       </c>
       <c r="H78">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I78">
         <v>2</v>
@@ -10530,7 +10635,7 @@
         <v>140303</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -10539,16 +10644,17 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F79" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G79">
         <v>5000</v>
       </c>
       <c r="H79">
-        <v>2500</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -10628,7 +10734,7 @@
         <v>140304</v>
       </c>
       <c r="B80" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -10637,16 +10743,17 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F80" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G80">
         <v>14000</v>
       </c>
       <c r="H80">
-        <v>7000</v>
+        <f t="shared" si="1"/>
+        <v>5600</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -10726,7 +10833,7 @@
         <v>140305</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -10735,16 +10842,17 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F81" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G81">
         <v>6300</v>
       </c>
       <c r="H81">
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>2520</v>
       </c>
       <c r="I81">
         <v>2</v>
@@ -10824,7 +10932,7 @@
         <v>140306</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -10833,16 +10941,17 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F82" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G82">
         <v>2000</v>
       </c>
       <c r="H82">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -10922,7 +11031,7 @@
         <v>140307</v>
       </c>
       <c r="B83" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -10931,16 +11040,17 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F83" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G83">
         <v>2500</v>
       </c>
       <c r="H83">
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -11020,7 +11130,7 @@
         <v>140308</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -11029,16 +11139,17 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F84" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G84">
         <v>7500</v>
       </c>
       <c r="H84">
-        <v>3750</v>
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
       <c r="I84">
         <v>2</v>
@@ -11118,7 +11229,7 @@
         <v>140309</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -11127,16 +11238,17 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F85" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G85">
         <v>15000</v>
       </c>
       <c r="H85">
-        <v>7500</v>
+        <f t="shared" si="1"/>
+        <v>6000</v>
       </c>
       <c r="I85">
         <v>2</v>
@@ -11216,7 +11328,7 @@
         <v>140310</v>
       </c>
       <c r="B86" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -11225,16 +11337,17 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F86" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G86">
         <v>2000</v>
       </c>
       <c r="H86">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I86">
         <v>2</v>
@@ -11314,7 +11427,7 @@
         <v>140311</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -11323,16 +11436,17 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F87" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G87">
         <v>5000</v>
       </c>
       <c r="H87">
-        <v>2500</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -11412,7 +11526,7 @@
         <v>140312</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -11421,16 +11535,17 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F88" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G88">
         <v>14000</v>
       </c>
       <c r="H88">
-        <v>7000</v>
+        <f t="shared" si="1"/>
+        <v>5600</v>
       </c>
       <c r="I88">
         <v>2</v>
@@ -11510,7 +11625,7 @@
         <v>140313</v>
       </c>
       <c r="B89" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -11519,16 +11634,17 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G89">
         <v>3600</v>
       </c>
       <c r="H89">
-        <v>1800</v>
+        <f t="shared" si="1"/>
+        <v>1440</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -11608,7 +11724,7 @@
         <v>140400</v>
       </c>
       <c r="B90" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -11617,16 +11733,17 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F90" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G90">
         <v>300</v>
       </c>
       <c r="H90">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -11706,7 +11823,7 @@
         <v>140401</v>
       </c>
       <c r="B91" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -11715,16 +11832,17 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F91" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G91">
         <v>1200</v>
       </c>
       <c r="H91">
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>480</v>
       </c>
       <c r="I91">
         <v>2</v>
@@ -11804,7 +11922,7 @@
         <v>140402</v>
       </c>
       <c r="B92" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -11813,16 +11931,17 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F92" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G92">
         <v>2000</v>
       </c>
       <c r="H92">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -11902,7 +12021,7 @@
         <v>140403</v>
       </c>
       <c r="B93" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -11911,16 +12030,17 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F93" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G93">
         <v>2200</v>
       </c>
       <c r="H93">
-        <v>1100</v>
+        <f t="shared" si="1"/>
+        <v>880</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -12000,7 +12120,7 @@
         <v>140404</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -12009,16 +12129,17 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F94" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G94">
         <v>2100</v>
       </c>
       <c r="H94">
-        <v>1050</v>
+        <f t="shared" si="1"/>
+        <v>840</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -12098,7 +12219,7 @@
         <v>140405</v>
       </c>
       <c r="B95" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -12107,16 +12228,17 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F95" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G95">
         <v>3200</v>
       </c>
       <c r="H95">
-        <v>1600</v>
+        <f t="shared" si="1"/>
+        <v>1280</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -12196,7 +12318,7 @@
         <v>140406</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -12205,16 +12327,17 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F96" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G96">
         <v>3500</v>
       </c>
       <c r="H96">
-        <v>1750</v>
+        <f t="shared" si="1"/>
+        <v>1400</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -12294,7 +12417,7 @@
         <v>140407</v>
       </c>
       <c r="B97" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -12303,16 +12426,17 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F97" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G97">
         <v>4200</v>
       </c>
       <c r="H97">
-        <v>2100</v>
+        <f t="shared" si="1"/>
+        <v>1680</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -12392,7 +12516,7 @@
         <v>140408</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -12401,16 +12525,17 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F98" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G98">
         <v>5600</v>
       </c>
       <c r="H98">
-        <v>2800</v>
+        <f t="shared" si="1"/>
+        <v>2240</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -12490,7 +12615,7 @@
         <v>140409</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -12499,16 +12624,17 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F99" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G99">
         <v>6200</v>
       </c>
       <c r="H99">
-        <v>3100</v>
+        <f t="shared" si="1"/>
+        <v>2480</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -12588,7 +12714,7 @@
         <v>140410</v>
       </c>
       <c r="B100" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -12597,16 +12723,17 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F100" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G100">
         <v>7200</v>
       </c>
       <c r="H100">
-        <v>3600</v>
+        <f t="shared" si="1"/>
+        <v>2880</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -12686,7 +12813,7 @@
         <v>140411</v>
       </c>
       <c r="B101" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -12695,16 +12822,17 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F101" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G101">
         <v>7400</v>
       </c>
       <c r="H101">
-        <v>3700</v>
+        <f t="shared" si="1"/>
+        <v>2960</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -12784,7 +12912,7 @@
         <v>140412</v>
       </c>
       <c r="B102" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -12793,16 +12921,17 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F102" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G102">
         <v>7600</v>
       </c>
       <c r="H102">
-        <v>3800</v>
+        <f t="shared" si="1"/>
+        <v>3040</v>
       </c>
       <c r="I102">
         <v>2</v>
@@ -12882,7 +13011,7 @@
         <v>140413</v>
       </c>
       <c r="B103" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -12891,16 +13020,17 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F103" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G103">
         <v>9600</v>
       </c>
       <c r="H103">
-        <v>4800</v>
+        <f t="shared" si="1"/>
+        <v>3840</v>
       </c>
       <c r="I103">
         <v>2</v>
@@ -12980,7 +13110,7 @@
         <v>140414</v>
       </c>
       <c r="B104" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -12989,16 +13119,17 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F104" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G104">
         <v>12000</v>
       </c>
       <c r="H104">
-        <v>6000</v>
+        <f t="shared" si="1"/>
+        <v>4800</v>
       </c>
       <c r="I104">
         <v>2</v>
@@ -13078,7 +13209,7 @@
         <v>140415</v>
       </c>
       <c r="B105" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -13087,16 +13218,17 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F105" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G105">
         <v>15000</v>
       </c>
       <c r="H105">
-        <v>7500</v>
+        <f t="shared" si="1"/>
+        <v>6000</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -13176,7 +13308,7 @@
         <v>140416</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -13185,16 +13317,17 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F106" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G106">
         <v>13000</v>
       </c>
       <c r="H106">
-        <v>6500</v>
+        <f t="shared" si="1"/>
+        <v>5200</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -13274,7 +13407,7 @@
         <v>140500</v>
       </c>
       <c r="B107" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -13283,16 +13416,17 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F107" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G107">
         <v>100</v>
       </c>
       <c r="H107">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="I107">
         <v>2</v>
@@ -13372,7 +13506,7 @@
         <v>140501</v>
       </c>
       <c r="B108" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -13381,16 +13515,17 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F108" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G108">
         <v>2500</v>
       </c>
       <c r="H108">
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -13470,7 +13605,7 @@
         <v>140502</v>
       </c>
       <c r="B109" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -13479,16 +13614,17 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F109" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G109">
         <v>3000</v>
       </c>
       <c r="H109">
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>1200</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -13568,7 +13704,7 @@
         <v>140503</v>
       </c>
       <c r="B110" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -13577,16 +13713,17 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F110" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G110">
         <v>2000</v>
       </c>
       <c r="H110">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -13666,7 +13803,7 @@
         <v>140504</v>
       </c>
       <c r="B111" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -13675,16 +13812,17 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F111" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G111">
         <v>2000</v>
       </c>
       <c r="H111">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -13764,7 +13902,7 @@
         <v>140505</v>
       </c>
       <c r="B112" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -13773,16 +13911,17 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F112" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G112">
         <v>2500</v>
       </c>
       <c r="H112">
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="I112">
         <v>2</v>
@@ -13862,7 +14001,7 @@
         <v>140506</v>
       </c>
       <c r="B113" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -13871,16 +14010,17 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F113" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G113">
         <v>2000</v>
       </c>
       <c r="H113">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -13960,7 +14100,7 @@
         <v>140507</v>
       </c>
       <c r="B114" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -13969,16 +14109,17 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F114" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G114">
         <v>2500</v>
       </c>
       <c r="H114">
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="I114">
         <v>2</v>
@@ -14058,7 +14199,7 @@
         <v>140508</v>
       </c>
       <c r="B115" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -14067,16 +14208,17 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F115" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G115">
         <v>2500</v>
       </c>
       <c r="H115">
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -14156,7 +14298,7 @@
         <v>140509</v>
       </c>
       <c r="B116" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -14165,16 +14307,17 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F116" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G116">
         <v>3500</v>
       </c>
       <c r="H116">
-        <v>1750</v>
+        <f t="shared" si="1"/>
+        <v>1400</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -14254,7 +14397,7 @@
         <v>140510</v>
       </c>
       <c r="B117" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -14263,16 +14406,17 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F117" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G117">
         <v>2500</v>
       </c>
       <c r="H117">
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -14352,7 +14496,7 @@
         <v>140511</v>
       </c>
       <c r="B118" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -14361,16 +14505,17 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F118" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G118">
         <v>3000</v>
       </c>
       <c r="H118">
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>1200</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -14450,7 +14595,7 @@
         <v>140512</v>
       </c>
       <c r="B119" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -14459,16 +14604,17 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F119" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G119">
         <v>3000</v>
       </c>
       <c r="H119">
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>1200</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -14548,7 +14694,7 @@
         <v>140513</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -14557,16 +14703,17 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F120" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G120">
         <v>4000</v>
       </c>
       <c r="H120">
-        <v>2000</v>
+        <f t="shared" si="1"/>
+        <v>1600</v>
       </c>
       <c r="I120">
         <v>2</v>
@@ -14646,7 +14793,7 @@
         <v>140514</v>
       </c>
       <c r="B121" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -14655,16 +14802,17 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F121" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G121">
         <v>5000</v>
       </c>
       <c r="H121">
-        <v>2500</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="I121">
         <v>2</v>
@@ -14744,7 +14892,7 @@
         <v>140515</v>
       </c>
       <c r="B122" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -14753,16 +14901,17 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F122" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G122">
         <v>4500</v>
       </c>
       <c r="H122">
-        <v>2250</v>
+        <f t="shared" si="1"/>
+        <v>1800</v>
       </c>
       <c r="I122">
         <v>2</v>
@@ -14842,7 +14991,7 @@
         <v>140516</v>
       </c>
       <c r="B123" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -14851,16 +15000,17 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F123" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G123">
         <v>4500</v>
       </c>
       <c r="H123">
-        <v>2250</v>
+        <f t="shared" si="1"/>
+        <v>1800</v>
       </c>
       <c r="I123">
         <v>2</v>
@@ -14940,7 +15090,7 @@
         <v>140517</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -14949,16 +15099,17 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F124" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G124">
         <v>4500</v>
       </c>
       <c r="H124">
-        <v>2250</v>
+        <f t="shared" si="1"/>
+        <v>1800</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -15038,7 +15189,7 @@
         <v>140518</v>
       </c>
       <c r="B125" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -15047,16 +15198,17 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F125" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G125">
         <v>2000</v>
       </c>
       <c r="H125">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="I125">
         <v>2</v>
@@ -15136,7 +15288,7 @@
         <v>140519</v>
       </c>
       <c r="B126" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -15145,16 +15297,17 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F126" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G126">
         <v>250</v>
       </c>
       <c r="H126">
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -15234,7 +15387,7 @@
         <v>140520</v>
       </c>
       <c r="B127" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -15243,16 +15396,17 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F127" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G127">
         <v>3500</v>
       </c>
       <c r="H127">
-        <v>1750</v>
+        <f t="shared" si="1"/>
+        <v>1400</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -15332,7 +15486,7 @@
         <v>140521</v>
       </c>
       <c r="B128" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -15341,16 +15495,17 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F128" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G128">
         <v>1250</v>
       </c>
       <c r="H128">
-        <v>625</v>
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -15430,7 +15585,7 @@
         <v>140522</v>
       </c>
       <c r="B129" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -15439,16 +15594,17 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F129" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G129">
         <v>5000</v>
       </c>
       <c r="H129">
-        <v>2500</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -15528,7 +15684,7 @@
         <v>140523</v>
       </c>
       <c r="B130" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -15537,16 +15693,17 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F130" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G130">
         <v>1500</v>
       </c>
       <c r="H130">
-        <v>750</v>
+        <f t="shared" si="1"/>
+        <v>600</v>
       </c>
       <c r="I130">
         <v>2</v>
@@ -15626,7 +15783,7 @@
         <v>140524</v>
       </c>
       <c r="B131" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -15635,16 +15792,17 @@
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F131" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G131">
         <v>2500</v>
       </c>
       <c r="H131">
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="I131">
         <v>2</v>
@@ -15724,7 +15882,7 @@
         <v>140600</v>
       </c>
       <c r="B132" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -15733,16 +15891,17 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F132" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G132">
         <v>300</v>
       </c>
       <c r="H132">
-        <v>150</v>
+        <f t="shared" ref="H132:H195" si="2">G132*0.4</f>
+        <v>120</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -15822,7 +15981,7 @@
         <v>140601</v>
       </c>
       <c r="B133" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -15831,16 +15990,17 @@
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F133" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G133">
         <v>1500</v>
       </c>
       <c r="H133">
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -15920,7 +16080,7 @@
         <v>140602</v>
       </c>
       <c r="B134" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -15929,16 +16089,17 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F134" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G134">
         <v>4500</v>
       </c>
       <c r="H134">
-        <v>2250</v>
+        <f t="shared" si="2"/>
+        <v>1800</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -16018,7 +16179,7 @@
         <v>140603</v>
       </c>
       <c r="B135" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -16027,16 +16188,17 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F135" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G135">
         <v>7000</v>
       </c>
       <c r="H135">
-        <v>3500</v>
+        <f t="shared" si="2"/>
+        <v>2800</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -16116,7 +16278,7 @@
         <v>140604</v>
       </c>
       <c r="B136" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -16125,16 +16287,17 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F136" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G136">
         <v>8500</v>
       </c>
       <c r="H136">
-        <v>4250</v>
+        <f t="shared" si="2"/>
+        <v>3400</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -16214,7 +16377,7 @@
         <v>140605</v>
       </c>
       <c r="B137" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -16223,16 +16386,17 @@
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F137" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G137">
         <v>15000</v>
       </c>
       <c r="H137">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -16312,7 +16476,7 @@
         <v>140606</v>
       </c>
       <c r="B138" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -16321,16 +16485,17 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F138" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G138">
         <v>400</v>
       </c>
       <c r="H138">
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
       <c r="I138">
         <v>2</v>
@@ -16410,7 +16575,7 @@
         <v>140607</v>
       </c>
       <c r="B139" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -16419,16 +16584,17 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F139" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G139">
         <v>5000</v>
       </c>
       <c r="H139">
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>2000</v>
       </c>
       <c r="I139">
         <v>2</v>
@@ -16508,7 +16674,7 @@
         <v>140608</v>
       </c>
       <c r="B140" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -16517,16 +16683,17 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F140" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G140">
         <v>5000</v>
       </c>
       <c r="H140">
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>2000</v>
       </c>
       <c r="I140">
         <v>2</v>
@@ -16606,7 +16773,7 @@
         <v>140609</v>
       </c>
       <c r="B141" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -16615,16 +16782,17 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F141" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G141">
         <v>6000</v>
       </c>
       <c r="H141">
-        <v>3000</v>
+        <f t="shared" si="2"/>
+        <v>2400</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -16704,7 +16872,7 @@
         <v>140610</v>
       </c>
       <c r="B142" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -16713,16 +16881,17 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F142" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G142">
         <v>15000</v>
       </c>
       <c r="H142">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -16802,7 +16971,7 @@
         <v>140700</v>
       </c>
       <c r="B143" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -16811,16 +16980,17 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F143" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G143">
         <v>300</v>
       </c>
       <c r="H143">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -16900,7 +17070,7 @@
         <v>140701</v>
       </c>
       <c r="B144" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -16909,16 +17079,17 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F144" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G144">
         <v>300</v>
       </c>
       <c r="H144">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="I144">
         <v>2</v>
@@ -16998,7 +17169,7 @@
         <v>140702</v>
       </c>
       <c r="B145" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -17007,16 +17178,17 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F145" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G145">
         <v>1000</v>
       </c>
       <c r="H145">
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="I145">
         <v>2</v>
@@ -17096,7 +17268,7 @@
         <v>140703</v>
       </c>
       <c r="B146" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -17105,16 +17277,17 @@
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F146" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G146">
         <v>1500</v>
       </c>
       <c r="H146">
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -17194,7 +17367,7 @@
         <v>140704</v>
       </c>
       <c r="B147" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -17203,16 +17376,17 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F147" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G147">
         <v>2000</v>
       </c>
       <c r="H147">
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>800</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -17292,7 +17466,7 @@
         <v>140705</v>
       </c>
       <c r="B148" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -17301,16 +17475,17 @@
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F148" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G148">
         <v>3000</v>
       </c>
       <c r="H148">
-        <v>1500</v>
+        <f t="shared" si="2"/>
+        <v>1200</v>
       </c>
       <c r="I148">
         <v>2</v>
@@ -17390,7 +17565,7 @@
         <v>140706</v>
       </c>
       <c r="B149" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -17399,16 +17574,17 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F149" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G149">
         <v>7500</v>
       </c>
       <c r="H149">
-        <v>3750</v>
+        <f t="shared" si="2"/>
+        <v>3000</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -17488,7 +17664,7 @@
         <v>140707</v>
       </c>
       <c r="B150" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -17497,16 +17673,17 @@
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F150" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G150">
         <v>8000</v>
       </c>
       <c r="H150">
-        <v>4000</v>
+        <f t="shared" si="2"/>
+        <v>3200</v>
       </c>
       <c r="I150">
         <v>2</v>
@@ -17586,7 +17763,7 @@
         <v>140708</v>
       </c>
       <c r="B151" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -17595,16 +17772,17 @@
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F151" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G151">
         <v>8500</v>
       </c>
       <c r="H151">
-        <v>4250</v>
+        <f t="shared" si="2"/>
+        <v>3400</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -17684,7 +17862,7 @@
         <v>140709</v>
       </c>
       <c r="B152" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -17693,16 +17871,17 @@
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F152" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G152">
         <v>7500</v>
       </c>
       <c r="H152">
-        <v>3750</v>
+        <f t="shared" si="2"/>
+        <v>3000</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -17782,7 +17961,7 @@
         <v>140710</v>
       </c>
       <c r="B153" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -17791,16 +17970,17 @@
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F153" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G153">
         <v>8000</v>
       </c>
       <c r="H153">
-        <v>4000</v>
+        <f t="shared" si="2"/>
+        <v>3200</v>
       </c>
       <c r="I153">
         <v>2</v>
@@ -17880,7 +18060,7 @@
         <v>140711</v>
       </c>
       <c r="B154" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -17889,16 +18069,17 @@
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F154" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G154">
         <v>15000</v>
       </c>
       <c r="H154">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I154">
         <v>2</v>
@@ -17978,7 +18159,7 @@
         <v>140712</v>
       </c>
       <c r="B155" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -17987,16 +18168,17 @@
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F155" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G155">
         <v>15000</v>
       </c>
       <c r="H155">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I155">
         <v>2</v>
@@ -18076,7 +18258,7 @@
         <v>140713</v>
       </c>
       <c r="B156" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -18085,16 +18267,17 @@
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F156" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G156">
         <v>15000</v>
       </c>
       <c r="H156">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -18174,7 +18357,7 @@
         <v>140800</v>
       </c>
       <c r="B157" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -18183,16 +18366,17 @@
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F157" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G157">
         <v>300</v>
       </c>
       <c r="H157">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -18272,7 +18456,7 @@
         <v>140801</v>
       </c>
       <c r="B158" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -18281,16 +18465,17 @@
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F158" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G158">
         <v>300</v>
       </c>
       <c r="H158">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -18370,7 +18555,7 @@
         <v>140802</v>
       </c>
       <c r="B159" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -18379,16 +18564,17 @@
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F159" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G159">
         <v>5000</v>
       </c>
       <c r="H159">
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>2000</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -18468,7 +18654,7 @@
         <v>140803</v>
       </c>
       <c r="B160" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -18477,16 +18663,17 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F160" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G160">
         <v>9000</v>
       </c>
       <c r="H160">
-        <v>4500</v>
+        <f t="shared" si="2"/>
+        <v>3600</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -18566,7 +18753,7 @@
         <v>140804</v>
       </c>
       <c r="B161" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -18575,16 +18762,17 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F161" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G161">
         <v>14000</v>
       </c>
       <c r="H161">
-        <v>7000</v>
+        <f t="shared" si="2"/>
+        <v>5600</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -18664,7 +18852,7 @@
         <v>140900</v>
       </c>
       <c r="B162" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -18673,16 +18861,17 @@
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F162" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G162">
         <v>300</v>
       </c>
       <c r="H162">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -18762,7 +18951,7 @@
         <v>140901</v>
       </c>
       <c r="B163" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -18771,16 +18960,17 @@
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F163" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G163">
         <v>1500</v>
       </c>
       <c r="H163">
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -18860,7 +19050,7 @@
         <v>140902</v>
       </c>
       <c r="B164" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -18869,16 +19059,17 @@
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F164" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G164">
         <v>2000</v>
       </c>
       <c r="H164">
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>800</v>
       </c>
       <c r="I164">
         <v>2</v>
@@ -18958,7 +19149,7 @@
         <v>140903</v>
       </c>
       <c r="B165" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -18967,16 +19158,17 @@
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F165" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G165">
         <v>4000</v>
       </c>
       <c r="H165">
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
       <c r="I165">
         <v>2</v>
@@ -19056,7 +19248,7 @@
         <v>140904</v>
       </c>
       <c r="B166" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -19065,16 +19257,17 @@
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F166" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G166">
         <v>4000</v>
       </c>
       <c r="H166">
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -19154,7 +19347,7 @@
         <v>140905</v>
       </c>
       <c r="B167" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -19163,16 +19356,17 @@
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F167" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G167">
         <v>8500</v>
       </c>
       <c r="H167">
-        <v>4250</v>
+        <f t="shared" si="2"/>
+        <v>3400</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -19252,7 +19446,7 @@
         <v>140906</v>
       </c>
       <c r="B168" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -19261,16 +19455,17 @@
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F168" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G168">
         <v>8500</v>
       </c>
       <c r="H168">
-        <v>4250</v>
+        <f t="shared" si="2"/>
+        <v>3400</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -19350,7 +19545,7 @@
         <v>140907</v>
       </c>
       <c r="B169" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -19359,16 +19554,17 @@
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F169" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G169">
         <v>8500</v>
       </c>
       <c r="H169">
-        <v>4250</v>
+        <f t="shared" si="2"/>
+        <v>3400</v>
       </c>
       <c r="I169">
         <v>2</v>
@@ -19448,7 +19644,7 @@
         <v>140908</v>
       </c>
       <c r="B170" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -19457,16 +19653,17 @@
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F170" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G170">
         <v>13000</v>
       </c>
       <c r="H170">
-        <v>6500</v>
+        <f t="shared" si="2"/>
+        <v>5200</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -19546,7 +19743,7 @@
         <v>140909</v>
       </c>
       <c r="B171" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -19555,16 +19752,17 @@
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F171" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="G171">
         <v>14000</v>
       </c>
       <c r="H171">
-        <v>7000</v>
+        <f t="shared" si="2"/>
+        <v>5600</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -19644,7 +19842,7 @@
         <v>140910</v>
       </c>
       <c r="B172" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -19653,16 +19851,17 @@
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F172" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G172">
         <v>12000</v>
       </c>
       <c r="H172">
-        <v>6000</v>
+        <f t="shared" si="2"/>
+        <v>4800</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -19742,7 +19941,7 @@
         <v>140911</v>
       </c>
       <c r="B173" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -19751,16 +19950,17 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F173" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G173">
         <v>15000</v>
       </c>
       <c r="H173">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I173">
         <v>2</v>
@@ -19840,7 +20040,7 @@
         <v>141000</v>
       </c>
       <c r="B174" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -19849,16 +20049,17 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F174" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G174">
         <v>500</v>
       </c>
       <c r="H174">
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="I174">
         <v>2</v>
@@ -19938,7 +20139,7 @@
         <v>141001</v>
       </c>
       <c r="B175" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -19947,16 +20148,17 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F175" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G175">
         <v>1500</v>
       </c>
       <c r="H175">
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -20036,7 +20238,7 @@
         <v>141002</v>
       </c>
       <c r="B176" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -20045,16 +20247,17 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F176" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G176">
         <v>1000</v>
       </c>
       <c r="H176">
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="I176">
         <v>2</v>
@@ -20134,7 +20337,7 @@
         <v>141003</v>
       </c>
       <c r="B177" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -20143,16 +20346,17 @@
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F177" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G177">
         <v>2500</v>
       </c>
       <c r="H177">
-        <v>1250</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="I177">
         <v>2</v>
@@ -20232,7 +20436,7 @@
         <v>141004</v>
       </c>
       <c r="B178" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C178">
         <v>2</v>
@@ -20241,16 +20445,17 @@
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F178" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G178">
         <v>3500</v>
       </c>
       <c r="H178">
-        <v>1750</v>
+        <f t="shared" si="2"/>
+        <v>1400</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -20330,7 +20535,7 @@
         <v>141005</v>
       </c>
       <c r="B179" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C179">
         <v>2</v>
@@ -20339,16 +20544,17 @@
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F179" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G179">
         <v>3000</v>
       </c>
       <c r="H179">
-        <v>1500</v>
+        <f t="shared" si="2"/>
+        <v>1200</v>
       </c>
       <c r="I179">
         <v>2</v>
@@ -20428,7 +20634,7 @@
         <v>141006</v>
       </c>
       <c r="B180" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C180">
         <v>2</v>
@@ -20437,16 +20643,17 @@
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F180" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G180">
         <v>7000</v>
       </c>
       <c r="H180">
-        <v>3500</v>
+        <f t="shared" si="2"/>
+        <v>2800</v>
       </c>
       <c r="I180">
         <v>2</v>
@@ -20526,7 +20733,7 @@
         <v>141007</v>
       </c>
       <c r="B181" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C181">
         <v>2</v>
@@ -20535,16 +20742,17 @@
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F181" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G181">
         <v>9000</v>
       </c>
       <c r="H181">
-        <v>4500</v>
+        <f t="shared" si="2"/>
+        <v>3600</v>
       </c>
       <c r="I181">
         <v>2</v>
@@ -20624,7 +20832,7 @@
         <v>141008</v>
       </c>
       <c r="B182" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C182">
         <v>2</v>
@@ -20633,16 +20841,17 @@
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F182" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G182">
         <v>4000</v>
       </c>
       <c r="H182">
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
       <c r="I182">
         <v>2</v>
@@ -20722,7 +20931,7 @@
         <v>141009</v>
       </c>
       <c r="B183" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C183">
         <v>2</v>
@@ -20731,16 +20940,17 @@
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F183" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="G183">
         <v>15000</v>
       </c>
       <c r="H183">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -20820,7 +21030,7 @@
         <v>141010</v>
       </c>
       <c r="B184" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C184">
         <v>2</v>
@@ -20829,16 +21039,17 @@
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F184" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G184">
         <v>5000</v>
       </c>
       <c r="H184">
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>2000</v>
       </c>
       <c r="I184">
         <v>2</v>
@@ -20918,7 +21129,7 @@
         <v>141011</v>
       </c>
       <c r="B185" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -20927,16 +21138,17 @@
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F185" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G185">
         <v>7500</v>
       </c>
       <c r="H185">
-        <v>3750</v>
+        <f t="shared" si="2"/>
+        <v>3000</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -21016,7 +21228,7 @@
         <v>141012</v>
       </c>
       <c r="B186" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C186">
         <v>2</v>
@@ -21025,16 +21237,17 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F186" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G186">
         <v>11000</v>
       </c>
       <c r="H186">
-        <v>5500</v>
+        <f t="shared" si="2"/>
+        <v>4400</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -21114,7 +21327,7 @@
         <v>141013</v>
       </c>
       <c r="B187" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C187">
         <v>2</v>
@@ -21123,16 +21336,17 @@
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F187" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G187">
         <v>12000</v>
       </c>
       <c r="H187">
-        <v>6000</v>
+        <f t="shared" si="2"/>
+        <v>4800</v>
       </c>
       <c r="I187">
         <v>2</v>
@@ -21212,7 +21426,7 @@
         <v>141014</v>
       </c>
       <c r="B188" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C188">
         <v>2</v>
@@ -21221,16 +21435,17 @@
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F188" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G188">
         <v>15000</v>
       </c>
       <c r="H188">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -21310,7 +21525,7 @@
         <v>141015</v>
       </c>
       <c r="B189" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C189">
         <v>2</v>
@@ -21319,16 +21534,17 @@
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F189" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G189">
         <v>4500</v>
       </c>
       <c r="H189">
-        <v>2250</v>
+        <f t="shared" si="2"/>
+        <v>1800</v>
       </c>
       <c r="I189">
         <v>2</v>
@@ -21408,7 +21624,7 @@
         <v>141016</v>
       </c>
       <c r="B190" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C190">
         <v>2</v>
@@ -21417,16 +21633,17 @@
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F190" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G190">
         <v>13000</v>
       </c>
       <c r="H190">
-        <v>6500</v>
+        <f t="shared" si="2"/>
+        <v>5200</v>
       </c>
       <c r="I190">
         <v>2</v>
@@ -21506,7 +21723,7 @@
         <v>141017</v>
       </c>
       <c r="B191" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -21515,16 +21732,17 @@
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F191" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G191">
         <v>15000</v>
       </c>
       <c r="H191">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I191">
         <v>2</v>
@@ -21604,7 +21822,7 @@
         <v>141018</v>
       </c>
       <c r="B192" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -21613,16 +21831,17 @@
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F192" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G192">
         <v>1250</v>
       </c>
       <c r="H192">
-        <v>625</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -21702,7 +21921,7 @@
         <v>141019</v>
       </c>
       <c r="B193" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -21711,16 +21930,17 @@
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F193" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="G193">
         <v>15000</v>
       </c>
       <c r="H193">
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -21800,7 +22020,7 @@
         <v>141100</v>
       </c>
       <c r="B194" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C194">
         <v>3</v>
@@ -21809,16 +22029,17 @@
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F194" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G194">
         <v>2500</v>
       </c>
       <c r="H194">
-        <v>1250</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="I194">
         <v>2</v>
@@ -21898,7 +22119,7 @@
         <v>141101</v>
       </c>
       <c r="B195" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -21907,16 +22128,17 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F195" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G195">
         <v>2500</v>
       </c>
       <c r="H195">
-        <v>1250</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="I195">
         <v>2</v>
@@ -21996,7 +22218,7 @@
         <v>141102</v>
       </c>
       <c r="B196" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C196">
         <v>3</v>
@@ -22005,16 +22227,17 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F196" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G196">
         <v>2500</v>
       </c>
       <c r="H196">
-        <v>1250</v>
+        <f t="shared" ref="H196:H259" si="3">G196*0.4</f>
+        <v>1000</v>
       </c>
       <c r="I196">
         <v>2</v>
@@ -22094,7 +22317,7 @@
         <v>141103</v>
       </c>
       <c r="B197" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C197">
         <v>3</v>
@@ -22103,16 +22326,17 @@
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F197" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G197">
         <v>4000</v>
       </c>
       <c r="H197">
-        <v>2000</v>
+        <f t="shared" si="3"/>
+        <v>1600</v>
       </c>
       <c r="I197">
         <v>2</v>
@@ -22192,7 +22416,7 @@
         <v>141104</v>
       </c>
       <c r="B198" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C198">
         <v>3</v>
@@ -22201,16 +22425,17 @@
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F198" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G198">
         <v>1000</v>
       </c>
       <c r="H198">
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -22290,7 +22515,7 @@
         <v>141105</v>
       </c>
       <c r="B199" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -22299,16 +22524,17 @@
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F199" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="G199">
         <v>1250</v>
       </c>
       <c r="H199">
-        <v>625</v>
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
       <c r="I199">
         <v>2</v>
@@ -22388,7 +22614,7 @@
         <v>141106</v>
       </c>
       <c r="B200" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C200">
         <v>3</v>
@@ -22397,16 +22623,17 @@
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F200" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G200">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -22486,7 +22713,7 @@
         <v>141107</v>
       </c>
       <c r="B201" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C201">
         <v>3</v>
@@ -22495,16 +22722,17 @@
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F201" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="G201">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="H201">
-        <v>333</v>
+        <f t="shared" si="3"/>
+        <v>272</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -22584,7 +22812,7 @@
         <v>141108</v>
       </c>
       <c r="B202" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C202">
         <v>3</v>
@@ -22593,16 +22821,17 @@
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F202" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G202">
         <v>500</v>
       </c>
       <c r="H202">
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -22682,7 +22911,7 @@
         <v>141109</v>
       </c>
       <c r="B203" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C203">
         <v>3</v>
@@ -22691,16 +22920,17 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F203" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G203">
         <v>1000</v>
       </c>
       <c r="H203">
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="I203">
         <v>2</v>
@@ -22780,7 +23010,7 @@
         <v>141110</v>
       </c>
       <c r="B204" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C204">
         <v>3</v>
@@ -22789,16 +23019,17 @@
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F204" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G204">
         <v>1500</v>
       </c>
       <c r="H204">
-        <v>750</v>
+        <f t="shared" si="3"/>
+        <v>600</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -22878,7 +23109,7 @@
         <v>141111</v>
       </c>
       <c r="B205" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C205">
         <v>3</v>
@@ -22887,16 +23118,17 @@
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F205" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G205">
         <v>500</v>
       </c>
       <c r="H205">
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -22976,7 +23208,7 @@
         <v>141112</v>
       </c>
       <c r="B206" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C206">
         <v>3</v>
@@ -22985,16 +23217,17 @@
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F206" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G206">
         <v>10</v>
       </c>
       <c r="H206">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -23074,7 +23307,7 @@
         <v>141113</v>
       </c>
       <c r="B207" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C207">
         <v>3</v>
@@ -23083,16 +23316,17 @@
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F207" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="G207">
         <v>2000</v>
       </c>
       <c r="H207">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -23172,7 +23406,7 @@
         <v>141114</v>
       </c>
       <c r="B208" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C208">
         <v>3</v>
@@ -23181,16 +23415,17 @@
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F208" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G208">
         <v>2000</v>
       </c>
       <c r="H208">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="I208">
         <v>2</v>
@@ -23270,7 +23505,7 @@
         <v>141115</v>
       </c>
       <c r="B209" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -23279,16 +23514,17 @@
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F209" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G209">
         <v>2000</v>
       </c>
       <c r="H209">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="I209">
         <v>2</v>
@@ -23368,7 +23604,7 @@
         <v>141116</v>
       </c>
       <c r="B210" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C210">
         <v>3</v>
@@ -23377,16 +23613,17 @@
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F210" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G210">
         <v>2000</v>
       </c>
       <c r="H210">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -23466,7 +23703,7 @@
         <v>141117</v>
       </c>
       <c r="B211" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C211">
         <v>3</v>
@@ -23475,16 +23712,17 @@
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F211" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G211">
         <v>2000</v>
       </c>
       <c r="H211">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="I211">
         <v>2</v>
@@ -23564,7 +23802,7 @@
         <v>141118</v>
       </c>
       <c r="B212" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C212">
         <v>3</v>
@@ -23573,16 +23811,17 @@
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F212" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G212">
         <v>2000</v>
       </c>
       <c r="H212">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="I212">
         <v>2</v>
@@ -23662,7 +23901,7 @@
         <v>141119</v>
       </c>
       <c r="B213" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C213">
         <v>3</v>
@@ -23671,16 +23910,17 @@
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="F213" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="G213">
         <v>2000</v>
       </c>
       <c r="H213">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="I213">
         <v>2</v>
@@ -23760,7 +24000,7 @@
         <v>141120</v>
       </c>
       <c r="B214" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -23769,16 +24009,17 @@
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F214" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G214">
         <v>5000</v>
       </c>
       <c r="H214">
-        <v>2500</v>
+        <f t="shared" si="3"/>
+        <v>2000</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -23858,7 +24099,7 @@
         <v>141121</v>
       </c>
       <c r="B215" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -23867,16 +24108,17 @@
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F215" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G215">
         <v>2500</v>
       </c>
       <c r="H215">
-        <v>1250</v>
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
       <c r="I215">
         <v>2</v>
@@ -23956,7 +24198,7 @@
         <v>141122</v>
       </c>
       <c r="B216" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -23965,16 +24207,17 @@
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F216" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G216">
-        <v>8888</v>
+        <v>8800</v>
       </c>
       <c r="H216">
-        <v>4444</v>
+        <f t="shared" si="3"/>
+        <v>3520</v>
       </c>
       <c r="I216">
         <v>2</v>
@@ -24054,7 +24297,7 @@
         <v>141123</v>
       </c>
       <c r="B217" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -24063,16 +24306,17 @@
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F217" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G217">
         <v>10</v>
       </c>
       <c r="H217">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -24152,7 +24396,7 @@
         <v>141124</v>
       </c>
       <c r="B218" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C218">
         <v>3</v>
@@ -24161,16 +24405,17 @@
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F218" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G218">
         <v>20</v>
       </c>
       <c r="H218">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -24250,7 +24495,7 @@
         <v>141125</v>
       </c>
       <c r="B219" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -24259,16 +24504,17 @@
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="F219" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="G219">
         <v>200</v>
       </c>
       <c r="H219">
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="I219">
         <v>2</v>
@@ -24348,7 +24594,7 @@
         <v>141126</v>
       </c>
       <c r="B220" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C220">
         <v>5</v>
@@ -24357,16 +24603,17 @@
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F220" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G220">
         <v>1000</v>
       </c>
       <c r="H220">
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -24446,7 +24693,7 @@
         <v>141127</v>
       </c>
       <c r="B221" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C221">
         <v>3</v>
@@ -24455,16 +24702,17 @@
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F221" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="G221">
         <v>1000</v>
       </c>
       <c r="H221">
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="I221">
         <v>2</v>
@@ -24544,7 +24792,7 @@
         <v>141128</v>
       </c>
       <c r="B222" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C222">
         <v>3</v>
@@ -24553,16 +24801,17 @@
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F222" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G222">
         <v>1000</v>
       </c>
       <c r="H222">
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="I222">
         <v>2</v>
@@ -24642,7 +24891,7 @@
         <v>141129</v>
       </c>
       <c r="B223" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C223">
         <v>3</v>
@@ -24651,16 +24900,17 @@
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F223" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G223">
         <v>800</v>
       </c>
       <c r="H223">
-        <v>400</v>
+        <f t="shared" si="3"/>
+        <v>320</v>
       </c>
       <c r="I223">
         <v>2</v>
@@ -24740,7 +24990,7 @@
         <v>141130</v>
       </c>
       <c r="B224" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -24749,16 +24999,17 @@
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F224" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G224">
         <v>3000</v>
       </c>
       <c r="H224">
-        <v>1500</v>
+        <f t="shared" si="3"/>
+        <v>1200</v>
       </c>
       <c r="I224">
         <v>2</v>
@@ -24838,7 +25089,7 @@
         <v>141131</v>
       </c>
       <c r="B225" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C225">
         <v>3</v>
@@ -24847,16 +25098,17 @@
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F225" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G225">
         <v>3000</v>
       </c>
       <c r="H225">
-        <v>1500</v>
+        <f t="shared" si="3"/>
+        <v>1200</v>
       </c>
       <c r="I225">
         <v>2</v>
@@ -24936,7 +25188,7 @@
         <v>141132</v>
       </c>
       <c r="B226" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C226">
         <v>3</v>
@@ -24945,16 +25197,17 @@
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F226" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G226">
         <v>4000</v>
       </c>
       <c r="H226">
-        <v>2000</v>
+        <f t="shared" si="3"/>
+        <v>1600</v>
       </c>
       <c r="I226">
         <v>2</v>
@@ -25034,7 +25287,7 @@
         <v>141133</v>
       </c>
       <c r="B227" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C227">
         <v>3</v>
@@ -25043,16 +25296,17 @@
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F227" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G227">
         <v>10000</v>
       </c>
       <c r="H227">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I227">
         <v>2</v>
@@ -25132,7 +25386,7 @@
         <v>141134</v>
       </c>
       <c r="B228" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -25141,16 +25395,17 @@
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F228" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G228">
         <v>5000</v>
       </c>
       <c r="H228">
-        <v>2500</v>
+        <f t="shared" si="3"/>
+        <v>2000</v>
       </c>
       <c r="I228">
         <v>2</v>
@@ -25230,7 +25485,7 @@
         <v>141135</v>
       </c>
       <c r="B229" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -25239,16 +25494,17 @@
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="F229" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G229">
         <v>100</v>
       </c>
       <c r="H229">
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="I229">
         <v>2</v>
@@ -25328,7 +25584,7 @@
         <v>141136</v>
       </c>
       <c r="B230" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C230">
         <v>3</v>
@@ -25337,16 +25593,17 @@
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F230" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G230">
         <v>5000</v>
       </c>
       <c r="H230">
-        <v>2500</v>
+        <f t="shared" si="3"/>
+        <v>2000</v>
       </c>
       <c r="I230">
         <v>2</v>
@@ -25426,7 +25683,7 @@
         <v>141137</v>
       </c>
       <c r="B231" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C231">
         <v>3</v>
@@ -25435,16 +25692,17 @@
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F231" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I231">
         <v>2</v>
@@ -25524,7 +25782,7 @@
         <v>141138</v>
       </c>
       <c r="B232" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -25533,16 +25791,17 @@
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F232" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G232">
         <v>7000</v>
       </c>
       <c r="H232">
-        <v>3500</v>
+        <f t="shared" si="3"/>
+        <v>2800</v>
       </c>
       <c r="I232">
         <v>2</v>
@@ -25622,7 +25881,7 @@
         <v>141139</v>
       </c>
       <c r="B233" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -25631,16 +25890,17 @@
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F233" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="G233">
         <v>3000</v>
       </c>
       <c r="H233">
-        <v>1500</v>
+        <f t="shared" si="3"/>
+        <v>1200</v>
       </c>
       <c r="I233">
         <v>2</v>
@@ -25720,7 +25980,7 @@
         <v>141140</v>
       </c>
       <c r="B234" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -25729,16 +25989,17 @@
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F234" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G234">
         <v>500</v>
       </c>
       <c r="H234">
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="I234">
         <v>2</v>
@@ -25818,7 +26079,7 @@
         <v>141141</v>
       </c>
       <c r="B235" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -25827,16 +26088,17 @@
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F235" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="G235">
         <v>2500</v>
       </c>
       <c r="H235">
-        <v>1250</v>
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
       <c r="I235">
         <v>2</v>
@@ -25916,7 +26178,7 @@
         <v>141142</v>
       </c>
       <c r="B236" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C236">
         <v>3</v>
@@ -25925,16 +26187,17 @@
         <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F236" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G236">
         <v>6000</v>
       </c>
       <c r="H236">
-        <v>3000</v>
+        <f t="shared" si="3"/>
+        <v>2400</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -26014,7 +26277,7 @@
         <v>141143</v>
       </c>
       <c r="B237" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -26023,16 +26286,17 @@
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F237" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="G237">
         <v>2500</v>
       </c>
       <c r="H237">
-        <v>1250</v>
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
       <c r="I237">
         <v>2</v>
@@ -26112,7 +26376,7 @@
         <v>141144</v>
       </c>
       <c r="B238" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -26121,16 +26385,17 @@
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F238" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G238">
         <v>50</v>
       </c>
       <c r="H238">
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="I238">
         <v>2</v>
@@ -26210,7 +26475,7 @@
         <v>141145</v>
       </c>
       <c r="B239" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C239">
         <v>4</v>
@@ -26219,16 +26484,17 @@
         <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F239" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G239">
         <v>1000</v>
       </c>
       <c r="H239">
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="I239">
         <v>2</v>
@@ -26308,7 +26574,7 @@
         <v>141146</v>
       </c>
       <c r="B240" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C240">
         <v>4</v>
@@ -26317,16 +26583,17 @@
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F240" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G240">
         <v>300</v>
       </c>
       <c r="H240">
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -26406,7 +26673,7 @@
         <v>141147</v>
       </c>
       <c r="B241" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C241">
         <v>5</v>
@@ -26415,16 +26682,17 @@
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="F241" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="G241">
         <v>10</v>
       </c>
       <c r="H241">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="I241">
         <v>2</v>
@@ -26504,7 +26772,7 @@
         <v>141149</v>
       </c>
       <c r="B242" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C242">
         <v>5</v>
@@ -26513,16 +26781,17 @@
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F242" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="G242">
         <v>200</v>
       </c>
       <c r="H242">
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -26602,7 +26871,7 @@
         <v>141150</v>
       </c>
       <c r="B243" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C243">
         <v>5</v>
@@ -26611,16 +26880,17 @@
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F243" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G243">
         <v>10000</v>
       </c>
       <c r="H243">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -26700,7 +26970,7 @@
         <v>141151</v>
       </c>
       <c r="B244" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C244">
         <v>5</v>
@@ -26709,16 +26979,17 @@
         <v>0</v>
       </c>
       <c r="E244" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F244" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="G244">
         <v>10000</v>
       </c>
       <c r="H244">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -26798,7 +27069,7 @@
         <v>141152</v>
       </c>
       <c r="B245" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C245">
         <v>5</v>
@@ -26807,16 +27078,17 @@
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F245" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G245">
         <v>10000</v>
       </c>
       <c r="H245">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -26896,7 +27168,7 @@
         <v>141153</v>
       </c>
       <c r="B246" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C246">
         <v>5</v>
@@ -26905,16 +27177,17 @@
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F246" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="G246">
         <v>10000</v>
       </c>
       <c r="H246">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -26994,7 +27267,7 @@
         <v>141154</v>
       </c>
       <c r="B247" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C247">
         <v>5</v>
@@ -27003,16 +27276,17 @@
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F247" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G247">
         <v>10000</v>
       </c>
       <c r="H247">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -27092,7 +27366,7 @@
         <v>141155</v>
       </c>
       <c r="B248" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C248">
         <v>5</v>
@@ -27101,16 +27375,17 @@
         <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F248" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="G248">
         <v>10000</v>
       </c>
       <c r="H248">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -27190,7 +27465,7 @@
         <v>141156</v>
       </c>
       <c r="B249" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C249">
         <v>5</v>
@@ -27199,16 +27474,17 @@
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F249" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G249">
         <v>10000</v>
       </c>
       <c r="H249">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -27288,7 +27564,7 @@
         <v>141157</v>
       </c>
       <c r="B250" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C250">
         <v>5</v>
@@ -27297,16 +27573,17 @@
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F250" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="G250">
         <v>10000</v>
       </c>
       <c r="H250">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -27386,7 +27663,7 @@
         <v>141158</v>
       </c>
       <c r="B251" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C251">
         <v>5</v>
@@ -27395,16 +27672,17 @@
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F251" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G251">
         <v>10000</v>
       </c>
       <c r="H251">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -27484,7 +27762,7 @@
         <v>141159</v>
       </c>
       <c r="B252" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C252">
         <v>5</v>
@@ -27493,16 +27771,17 @@
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F252" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G252">
         <v>10000</v>
       </c>
       <c r="H252">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -27582,7 +27861,7 @@
         <v>141160</v>
       </c>
       <c r="B253" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C253">
         <v>5</v>
@@ -27591,16 +27870,17 @@
         <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F253" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G253">
         <v>10000</v>
       </c>
       <c r="H253">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -27680,7 +27960,7 @@
         <v>141161</v>
       </c>
       <c r="B254" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C254">
         <v>5</v>
@@ -27689,16 +27969,17 @@
         <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="F254" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="G254">
         <v>10000</v>
       </c>
       <c r="H254">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -27778,7 +28059,7 @@
         <v>141162</v>
       </c>
       <c r="B255" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C255">
         <v>5</v>
@@ -27787,16 +28068,17 @@
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F255" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G255">
         <v>10000</v>
       </c>
       <c r="H255">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -27876,7 +28158,7 @@
         <v>141163</v>
       </c>
       <c r="B256" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C256">
         <v>5</v>
@@ -27885,16 +28167,17 @@
         <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F256" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G256">
         <v>10000</v>
       </c>
       <c r="H256">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -27974,7 +28257,7 @@
         <v>141164</v>
       </c>
       <c r="B257" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C257">
         <v>5</v>
@@ -27983,16 +28266,17 @@
         <v>0</v>
       </c>
       <c r="E257" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F257" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G257">
         <v>10000</v>
       </c>
       <c r="H257">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -28072,7 +28356,7 @@
         <v>141165</v>
       </c>
       <c r="B258" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C258">
         <v>5</v>
@@ -28081,16 +28365,17 @@
         <v>0</v>
       </c>
       <c r="E258" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F258" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="G258">
         <v>10000</v>
       </c>
       <c r="H258">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -28170,7 +28455,7 @@
         <v>141166</v>
       </c>
       <c r="B259" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C259">
         <v>5</v>
@@ -28179,16 +28464,17 @@
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F259" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G259">
         <v>10000</v>
       </c>
       <c r="H259">
-        <v>5000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -28268,7 +28554,7 @@
         <v>141167</v>
       </c>
       <c r="B260" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C260">
         <v>5</v>
@@ -28277,16 +28563,17 @@
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="F260" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="G260">
         <v>10000</v>
       </c>
       <c r="H260">
-        <v>5000</v>
+        <f t="shared" ref="H260:H271" si="4">G260*0.4</f>
+        <v>4000</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -28366,7 +28653,7 @@
         <v>141168</v>
       </c>
       <c r="B261" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C261">
         <v>5</v>
@@ -28375,16 +28662,17 @@
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F261" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G261">
         <v>10000</v>
       </c>
       <c r="H261">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -28464,7 +28752,7 @@
         <v>141169</v>
       </c>
       <c r="B262" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C262">
         <v>5</v>
@@ -28473,16 +28761,17 @@
         <v>0</v>
       </c>
       <c r="E262" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F262" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G262">
         <v>10000</v>
       </c>
       <c r="H262">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -28562,7 +28851,7 @@
         <v>141170</v>
       </c>
       <c r="B263" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C263">
         <v>5</v>
@@ -28571,16 +28860,17 @@
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F263" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G263">
         <v>10000</v>
       </c>
       <c r="H263">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="I263">
         <v>1</v>
@@ -28660,7 +28950,7 @@
         <v>141171</v>
       </c>
       <c r="B264" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C264">
         <v>5</v>
@@ -28669,16 +28959,17 @@
         <v>0</v>
       </c>
       <c r="E264" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F264" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G264">
         <v>10000</v>
       </c>
       <c r="H264">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -28758,7 +29049,7 @@
         <v>141172</v>
       </c>
       <c r="B265" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C265">
         <v>5</v>
@@ -28767,16 +29058,17 @@
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F265" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G265">
         <v>10000</v>
       </c>
       <c r="H265">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -28856,7 +29148,7 @@
         <v>141173</v>
       </c>
       <c r="B266" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C266">
         <v>5</v>
@@ -28865,16 +29157,17 @@
         <v>0</v>
       </c>
       <c r="E266" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F266" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="G266">
         <v>10000</v>
       </c>
       <c r="H266">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -28954,7 +29247,7 @@
         <v>141174</v>
       </c>
       <c r="B267" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C267">
         <v>5</v>
@@ -28963,16 +29256,17 @@
         <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F267" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="G267">
         <v>10000</v>
       </c>
       <c r="H267">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -29052,7 +29346,7 @@
         <v>141175</v>
       </c>
       <c r="B268" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C268">
         <v>5</v>
@@ -29061,16 +29355,17 @@
         <v>0</v>
       </c>
       <c r="E268" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F268" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="G268">
         <v>10000</v>
       </c>
       <c r="H268">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -29150,7 +29445,7 @@
         <v>141176</v>
       </c>
       <c r="B269" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C269">
         <v>4</v>
@@ -29159,16 +29454,17 @@
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F269" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="G269">
         <v>2000</v>
       </c>
       <c r="H269">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>800</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -29248,7 +29544,7 @@
         <v>187087</v>
       </c>
       <c r="B270" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C270">
         <v>4</v>
@@ -29257,16 +29553,17 @@
         <v>0</v>
       </c>
       <c r="E270" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F270" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G270">
         <v>200</v>
       </c>
       <c r="H270">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -29341,7 +29638,107 @@
         <v>0</v>
       </c>
     </row>
+    <row r="271" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>100004</v>
+      </c>
+      <c r="B271" t="s">
+        <v>839</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>840</v>
+      </c>
+      <c r="F271" t="s">
+        <v>841</v>
+      </c>
+      <c r="G271">
+        <v>24000</v>
+      </c>
+      <c r="H271">
+        <f t="shared" si="4"/>
+        <v>9600</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271">
+        <v>99</v>
+      </c>
+      <c r="P271">
+        <v>260</v>
+      </c>
+      <c r="Q271">
+        <v>180001</v>
+      </c>
+      <c r="R271">
+        <v>7</v>
+      </c>
+      <c r="S271">
+        <v>900113</v>
+      </c>
+      <c r="T271">
+        <v>0</v>
+      </c>
+      <c r="U271">
+        <v>0</v>
+      </c>
+      <c r="V271">
+        <v>0</v>
+      </c>
+      <c r="W271">
+        <v>0</v>
+      </c>
+      <c r="X271">
+        <v>0</v>
+      </c>
+      <c r="Y271">
+        <v>0</v>
+      </c>
+      <c r="Z271">
+        <v>0</v>
+      </c>
+      <c r="AA271">
+        <v>2</v>
+      </c>
+      <c r="AB271">
+        <v>0</v>
+      </c>
+      <c r="AC271">
+        <v>210002</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>842</v>
+      </c>
+      <c r="AE271" t="s">
+        <v>843</v>
+      </c>
+      <c r="AF271">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:AF270" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
